--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27463CB9-4E3B-4109-AF14-84782B8C5565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="269">
   <si>
     <t>level_row</t>
   </si>
@@ -556,9 +555,6 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>Petroleum</t>
-  </si>
-  <si>
     <t>Percentage of the smallholders to be covered</t>
   </si>
   <si>
@@ -646,12 +642,6 @@
     <t>Share of coffee to all products</t>
   </si>
   <si>
-    <t>Reduction in the Nitorgen Fertilizer weighted</t>
-  </si>
-  <si>
-    <t>Reduction in Phosphorus fertilizer weighted</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -787,9 +777,6 @@
     <t>Initial use of fruit of HR (HP)</t>
   </si>
   <si>
-    <t>20%-40%</t>
-  </si>
-  <si>
     <t>kg/plant</t>
   </si>
   <si>
@@ -845,12 +832,24 @@
   </si>
   <si>
     <t>Capital - Machines</t>
+  </si>
+  <si>
+    <t>Reduction in the Nitorgen Fertilizer weighted*</t>
+  </si>
+  <si>
+    <t>Reduction in Phosphorus fertilizer weighted*</t>
+  </si>
+  <si>
+    <t>*For now we consider them zero since in case banana tree the biomass return will somehow be compenstated by the nutrition competition of banana trees and coffee plants. (This kind of reduction can be considered only for N2 fuxunf species)</t>
+  </si>
+  <si>
+    <t>Residential and other sectors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -1421,23 +1420,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1451,12 +1450,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1469,21 +1468,21 @@
         <v>-6.1405266284913252E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1492,22 +1491,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1527,18 +1526,18 @@
         <v>0.99999999999999778</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1546,7 +1545,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1559,27 +1558,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.15625" style="1"/>
+    <col min="8" max="8" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1599,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1626,10 +1625,10 @@
         <v>2.9422988710693394E-6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1653,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1680,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1707,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -1734,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -1761,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1784,14 +1783,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2">
-        <f>main!C26</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1811,14 +1809,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="2">
-        <f>main!C27</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1838,14 +1835,13 @@
         <v>7</v>
       </c>
       <c r="G10" s="2">
-        <f>main!C28</f>
-        <v>-4.912421302793061E-6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -1869,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1896,15 +1892,15 @@
         <v>-6.5496463190987543E-5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1913,19 +1909,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>E2 C12 C8:C10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>C2 E3:E12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$D$2:$D$13</xm:f>
           </x14:formula1>
@@ -1938,24 +1934,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="32.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1972,15 +1968,15 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1996,10 +1992,10 @@
         <v>-3.3158843793853162E-6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2020,21 +2016,21 @@
         <v>4.666800237653407E-6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2043,13 +2039,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -2062,23 +2058,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83984375" customWidth="1"/>
+    <col min="3" max="3" width="47.15625" customWidth="1"/>
+    <col min="4" max="4" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2089,13 +2085,13 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2106,13 +2102,13 @@
         <v>137</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2123,13 +2119,13 @@
         <v>138</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2140,13 +2136,13 @@
         <v>139</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2157,13 +2153,13 @@
         <v>140</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2174,13 +2170,13 @@
         <v>141</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2191,13 +2187,13 @@
         <v>142</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2208,13 +2204,13 @@
         <v>143</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2225,13 +2221,13 @@
         <v>144</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2242,10 +2238,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2256,10 +2252,10 @@
         <v>145</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2270,10 +2266,10 @@
         <v>146</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2284,10 +2280,10 @@
         <v>147</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2309,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2434,7 +2430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2445,7 +2441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2467,7 +2463,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2489,7 +2485,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2533,7 +2529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2571,7 +2567,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2595,7 +2591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2599,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2607,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2635,7 +2631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2699,87 +2695,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2790,58 +2786,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.68359375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="21">
         <v>0.5</v>
@@ -2850,200 +2846,200 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C3" s="21">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="21">
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="21">
         <v>88278</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="21">
         <v>2000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="21">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="21">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="21">
         <f>C9*C8*C6*C5*C3/1000000</f>
         <v>4634.5950000000003</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="21">
         <v>10410</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="21">
         <v>1.4</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="21">
         <v>1.4</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="22">
         <v>800000</v>
@@ -3052,13 +3048,13 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="43"/>
       <c r="B15" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="22">
         <v>8.3479305095333606E-2</v>
@@ -3068,27 +3064,27 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C16" s="22">
         <v>-0.08</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C17" s="22">
         <v>-0.02</v>
@@ -3098,10 +3094,10 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="40"/>
       <c r="B18" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C18" s="22">
         <v>0.5</v>
@@ -3110,15 +3106,15 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="20">
         <v>1.4711494355346697E-4</v>
@@ -3128,10 +3124,10 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="20">
         <f>0.1*C7</f>
@@ -3139,17 +3135,17 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="20">
         <f>1-C12</f>
@@ -3158,16 +3154,16 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="42"/>
       <c r="B22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="20">
         <f>1-C13</f>
@@ -3176,16 +3172,16 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="39"/>
       <c r="B23" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C23" s="20">
         <v>-0.4</v>
@@ -3195,48 +3191,46 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" s="24">
         <f>C5*C6*C3*(C7+C20)/1000</f>
         <v>6797.4060000000009</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C25" s="23">
         <f>C17*C19</f>
         <v>-2.9422988710693394E-6</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="C26" s="27">
         <f>C15*C21*C19</f>
@@ -3245,14 +3239,14 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="C27" s="27">
         <f>C22*C15*C19</f>
@@ -3261,14 +3255,14 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="C28" s="27">
         <f>C23*C15*C19</f>
@@ -3276,33 +3270,35 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C29" s="32">
         <f>C24*C19</f>
         <v>0.99999999999999778</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C30" s="33">
         <f>C25</f>
@@ -3311,16 +3307,16 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="45"/>
       <c r="B31" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" s="35">
         <v>0</v>
@@ -3328,16 +3324,16 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="45"/>
       <c r="B32" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C32" s="34">
         <f>-0.27*C15*C19</f>
@@ -3349,12 +3345,12 @@
         <v>136</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C15*C19</f>
@@ -3366,12 +3362,12 @@
         <v>136</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C34" s="35">
         <f>-C10*C19/C11</f>
@@ -3380,15 +3376,15 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C35" s="35">
         <f>-C18*C19*C15</f>
@@ -3397,15 +3393,20 @@
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3417,7 @@
     <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27463CB9-4E3B-4109-AF14-84782B8C5565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E7A3-FC25-43B5-9A71-B837493D6763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -852,8 +852,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0;\-;\-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -998,7 +998,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1428,16 +1428,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1469,16 +1469,16 @@
         <v>-6.1405266284913252E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1499,15 +1499,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1527,18 +1527,18 @@
         <v>0.99999999999999778</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1566,20 +1566,20 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1945,17 +1945,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2023,10 +2023,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
@@ -2069,16 +2069,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2699,87 +2699,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2794,26 +2794,26 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>176</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>182</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
         <v>255</v>
@@ -2870,7 +2870,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>184</v>
@@ -2887,7 +2887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>219</v>
@@ -2904,7 +2904,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>220</v>
@@ -2919,7 +2919,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>189</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
         <v>246</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>245</v>
@@ -2975,14 +2975,13 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="C10" s="21">
-        <f>C9*C8*C6*C5*C3/1000000</f>
-        <v>4634.5950000000003</v>
+        <v>10410</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>191</v>
@@ -2991,29 +2990,27 @@
       <c r="F10" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C11" s="21">
-        <v>10410</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="21">
         <v>1.4</v>
@@ -3025,131 +3022,134 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="22">
+        <v>800000</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C14" s="22">
-        <v>800000</v>
+        <v>8.3479305095333606E-2</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C15" s="22">
-        <v>8.3479305095333606E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C16" s="22">
-        <v>-0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>260</v>
-      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C17" s="22">
-        <v>-0.02</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
         <v>185</v>
       </c>
+      <c r="B18" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1.4711494355346697E-4</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
       <c r="B19" s="14" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C19" s="20">
-        <v>1.4711494355346697E-4</v>
+        <f>0.1*C7</f>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C20" s="20">
-        <f>0.1*C7</f>
-        <v>1.4000000000000002E-2</v>
+        <f>1-C11</f>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="G20" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="20">
         <f>1-C12</f>
@@ -3164,62 +3164,62 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C22" s="20">
-        <f>1-C13</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" s="20">
-        <v>-0.4</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>178</v>
       </c>
+      <c r="B23" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="24">
+        <f>C5*C6*C3*(C7+C19)/1000</f>
+        <v>6797.4060000000009</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="24">
-        <f>C5*C6*C3*(C7+C20)/1000</f>
-        <v>6797.4060000000009</v>
-      </c>
-      <c r="D24" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C9*C8*C6*C5*C3/1000000</f>
+        <v>4634.5950000000003</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>204</v>
+      </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C25" s="23">
-        <f>C17*C19</f>
+        <f>C16*C18</f>
         <v>-2.9422988710693394E-6</v>
       </c>
       <c r="D25" s="15"/>
@@ -3233,13 +3233,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C26" s="27">
-        <f>C15*C21*C19</f>
+        <f>C14*C20*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D26" s="15"/>
@@ -3249,13 +3249,13 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="27">
-        <f>C22*C15*C19</f>
+        <f>C21*C14*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D27" s="15"/>
@@ -3265,13 +3265,13 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="27">
-        <f>C23*C15*C19</f>
+        <f>C22*C14*C18</f>
         <v>-4.912421302793061E-6</v>
       </c>
       <c r="D28" s="15"/>
@@ -3279,7 +3279,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>229</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>227</v>
       </c>
       <c r="C29" s="32">
-        <f>C24*C19</f>
+        <f>C23*C18</f>
         <v>0.99999999999999778</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>262</v>
@@ -3317,7 +3317,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="31" t="s">
         <v>230</v>
@@ -3334,13 +3334,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="31" t="s">
         <v>231</v>
       </c>
       <c r="C32" s="34">
-        <f>-0.27*C15*C19</f>
+        <f>-0.27*C14*C18</f>
         <v>-3.3158843793853162E-6</v>
       </c>
       <c r="D32" s="31"/>
@@ -3352,12 +3352,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>263</v>
       </c>
       <c r="C33" s="35">
-        <f>0.38*C15*C19</f>
+        <f>0.38*C14*C18</f>
         <v>4.666800237653407E-6</v>
       </c>
       <c r="D33" s="31"/>
@@ -3369,12 +3369,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>247</v>
       </c>
       <c r="C34" s="35">
-        <f>-C10*C19/C11</f>
+        <f>-C24*C18/C10</f>
         <v>-6.5496463190987543E-5</v>
       </c>
       <c r="D34" s="31"/>
@@ -3386,12 +3386,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
         <v>265</v>
       </c>
       <c r="C35" s="35">
-        <f>-C18*C19*C15</f>
+        <f>-C17*C18*C14</f>
         <v>-6.1405266284913252E-6</v>
       </c>
       <c r="D35" s="31"/>
@@ -3403,15 +3403,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A14"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A32"/>
   </mergeCells>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E7A3-FC25-43B5-9A71-B837493D6763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D92E58-F876-40BE-8944-5D3A80AB4897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={55484578-0C18-4DA2-8585-32EC3AAE18B0}</author>
+  </authors>
+  <commentList>
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{55484578-0C18-4DA2-8585-32EC3AAE18B0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="269">
   <si>
@@ -556,9 +574,6 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>Petroleum</t>
-  </si>
-  <si>
     <t>Percentage of the smallholders to be covered</t>
   </si>
   <si>
@@ -845,6 +860,9 @@
   </si>
   <si>
     <t>Capital - Machines</t>
+  </si>
+  <si>
+    <t>Residential and other sectors</t>
   </si>
 </sst>
 </file>
@@ -1123,6 +1141,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Nicolo' Golinucci" id="{1700F20F-D42A-4A8F-B5C9-4CDB0429B235}" userId="S::10427081@polimi.it::af77fc62-6a85-4b10-b94f-9bff1a9c5999" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,12 +1444,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C35" dT="2020-07-03T15:56:29.86" personId="{1700F20F-D42A-4A8F-B5C9-4CDB0429B235}" id="{55484578-0C18-4DA2-8585-32EC3AAE18B0}">
+    <text>We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1466,7 +1498,7 @@
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-6.1405266284913252E-6</v>
+        <v>-6.1405266284913252E-7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,7 +1595,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1626,7 +1658,7 @@
         <v>2.9422988710693394E-6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1637,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1653,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1664,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1680,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1691,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1707,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1718,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -1734,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1745,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -1761,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1788,7 +1820,7 @@
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1815,7 +1847,7 @@
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1842,7 +1874,7 @@
         <v>-4.912421302793061E-6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1853,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -1869,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1896,7 +1928,7 @@
         <v>-6.5496463190987543E-5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1980,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1996,7 +2028,7 @@
         <v>-3.3158843793853162E-6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2020,7 +2052,7 @@
         <v>4.666800237653407E-6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,10 +2121,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2106,10 +2138,10 @@
         <v>137</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2123,10 +2155,10 @@
         <v>138</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2140,10 +2172,10 @@
         <v>139</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2157,10 +2189,10 @@
         <v>140</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2174,10 +2206,10 @@
         <v>141</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,10 +2223,10 @@
         <v>142</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2208,10 +2240,10 @@
         <v>143</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2225,10 +2257,10 @@
         <v>144</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2242,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2256,7 +2288,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2270,7 +2302,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2284,7 +2316,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2790,14 +2822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2815,33 +2847,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="21">
         <v>0.5</v>
@@ -2850,71 +2882,71 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="21">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="21">
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="21">
         <v>88278</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="21">
         <v>2000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2922,87 +2954,87 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="21">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="21">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="21">
         <v>10410</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="21">
         <v>1.4</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3010,14 +3042,14 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="21">
         <v>1.4</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3025,7 +3057,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="22">
         <v>800000</v>
@@ -3034,13 +3066,13 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="22">
         <v>8.3479305095333606E-2</v>
@@ -3053,24 +3085,24 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="22">
         <v>-0.08</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="22">
         <v>-0.02</v>
@@ -3083,7 +3115,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="22">
         <v>0.5</v>
@@ -3092,15 +3124,15 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="20">
         <v>1.4711494355346697E-4</v>
@@ -3113,7 +3145,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
       <c r="B19" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="20">
         <f>0.1*C7</f>
@@ -3121,17 +3153,17 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="20">
         <f>1-C11</f>
@@ -3140,16 +3172,16 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="20">
         <f>1-C12</f>
@@ -3158,16 +3190,16 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="20">
         <v>-0.4</v>
@@ -3179,17 +3211,17 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="24">
         <f>C5*C6*C3*(C7+C19)/1000</f>
         <v>6797.4060000000009</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -3198,25 +3230,25 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="16">
         <f>C9*C8*C6*C5*C3/1000000</f>
         <v>4634.5950000000003</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
@@ -3224,19 +3256,19 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="27">
         <f>C14*C20*C18</f>
@@ -3245,14 +3277,14 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="27">
         <f>C21*C14*C18</f>
@@ -3261,14 +3293,14 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="27">
         <f>C22*C14*C18</f>
@@ -3281,28 +3313,28 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="32">
         <f>C23*C18</f>
         <v>0.99999999999999778</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="33">
         <f>C25</f>
@@ -3311,16 +3343,16 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="35">
         <v>0</v>
@@ -3328,16 +3360,16 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="34">
         <f>-0.27*C14*C18</f>
@@ -3349,12 +3381,12 @@
         <v>136</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
@@ -3366,12 +3398,12 @@
         <v>136</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
@@ -3380,32 +3412,32 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="35">
-        <f>-C17*C18*C14</f>
-        <v>-6.1405266284913252E-6</v>
+        <f>-C17*C18*C14*0.1</f>
+        <v>-6.1405266284913252E-7</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3420,5 +3452,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D92E58-F876-40BE-8944-5D3A80AB4897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,17 +37,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={55484578-0C18-4DA2-8585-32EC3AAE18B0}</author>
   </authors>
   <commentList>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{55484578-0C18-4DA2-8585-32EC3AAE18B0}">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -868,10 +876,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0;\-;\-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1016,7 +1024,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1075,7 +1083,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1453,23 +1461,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1501,21 +1509,21 @@
         <v>-6.1405266284913252E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1524,22 +1532,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1559,18 +1567,18 @@
         <v>0.99999999999999778</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1578,7 +1586,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1591,27 +1599,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.1015625" style="1"/>
+    <col min="8" max="8" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1715,7 +1723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1769,7 +1777,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1816,14 +1824,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2">
-        <f>main!C26</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1843,14 +1850,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="2">
-        <f>main!C27</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1870,14 +1876,13 @@
         <v>7</v>
       </c>
       <c r="G10" s="2">
-        <f>main!C28</f>
-        <v>-4.912421302793061E-6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1933,10 +1938,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1945,19 +1950,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>E2 C12 C8:C10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>C2 E3:E12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$D$2:$D$13</xm:f>
           </x14:formula1>
@@ -1970,24 +1975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="32.1015625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="24.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1015625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2012,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2031,7 +2036,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2055,18 +2060,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2075,13 +2080,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -2094,23 +2099,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.89453125" customWidth="1"/>
+    <col min="3" max="3" width="47.1015625" customWidth="1"/>
+    <col min="4" max="4" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +2268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2350,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2651,7 +2656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2667,7 +2672,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2675,7 +2680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2731,87 +2736,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2822,30 +2827,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.7890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.68359375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5234375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43" t="s">
         <v>181</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
         <v>254</v>
@@ -2902,7 +2907,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>183</v>
@@ -2919,7 +2924,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>218</v>
@@ -2936,7 +2941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>219</v>
@@ -2951,7 +2956,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>188</v>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
         <v>245</v>
@@ -2989,7 +2994,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>244</v>
@@ -3007,7 +3012,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
         <v>247</v>
@@ -3024,7 +3029,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
         <v>193</v>
@@ -3039,7 +3044,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
@@ -3054,7 +3059,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43"/>
       <c r="B13" s="13" t="s">
         <v>182</v>
@@ -3069,7 +3074,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
         <v>200</v>
@@ -3082,7 +3087,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
         <v>258</v>
@@ -3099,7 +3104,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>260</v>
@@ -3112,7 +3117,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
         <v>263</v>
@@ -3127,7 +3132,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -3142,7 +3147,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="42"/>
       <c r="B19" s="14" t="s">
         <v>189</v>
@@ -3160,7 +3165,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
         <v>195</v>
@@ -3178,7 +3183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
@@ -3196,7 +3201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
         <v>266</v>
@@ -3209,7 +3214,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29" t="s">
         <v>177</v>
       </c>
@@ -3227,7 +3232,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>185</v>
@@ -3245,7 +3250,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
         <v>261</v>
@@ -3265,7 +3270,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
         <v>201</v>
@@ -3281,7 +3286,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
         <v>202</v>
@@ -3297,7 +3302,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>202</v>
@@ -3311,7 +3316,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="45" t="s">
         <v>228</v>
       </c>
@@ -3331,7 +3336,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>261</v>
@@ -3349,7 +3354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="45"/>
       <c r="B31" s="31" t="s">
         <v>229</v>
@@ -3366,7 +3371,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="45"/>
       <c r="B32" s="31" t="s">
         <v>230</v>
@@ -3384,7 +3389,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="31" t="s">
         <v>262</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="31" t="s">
         <v>246</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="31" t="s">
         <v>264</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>257</v>
       </c>
@@ -3448,7 +3453,7 @@
     <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="270">
   <si>
     <t>level_row</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>Residential and other sectors</t>
+  </si>
+  <si>
+    <t>Absolute</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1502,11 +1505,11 @@
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-6.1405266284913252E-7</v>
+        <v>-4.9350649350649242E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1535,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2830,11 +2833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3123,7 +3126,7 @@
         <v>263</v>
       </c>
       <c r="C17" s="22">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3428,8 +3431,8 @@
         <v>264</v>
       </c>
       <c r="C35" s="35">
-        <f>-C17*C18*C14*0.1</f>
-        <v>-6.1405266284913252E-7</v>
+        <f>-C17*C18*C5/1000</f>
+        <v>-4.9350649350649242E-2</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B69A7-676A-4C28-907D-91F3D30FDC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -18,8 +19,12 @@
     <sheet name="VA" sheetId="5" r:id="rId4"/>
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
+    <sheet name="UL" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,26 +42,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={55484578-0C18-4DA2-8585-32EC3AAE18B0}</author>
   </authors>
   <commentList>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -64,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
   <si>
     <t>level_row</t>
   </si>
@@ -874,12 +870,27 @@
   </si>
   <si>
     <t>Absolute</t>
+  </si>
+  <si>
+    <t>Useful life</t>
+  </si>
+  <si>
+    <t>Sensistivity</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Step</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -1031,7 +1042,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1134,6 +1145,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1152,6 +1166,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="S"/>
+      <sheetName val="Y"/>
+      <sheetName val="Z"/>
+      <sheetName val="VA"/>
+      <sheetName val="UL"/>
+      <sheetName val="Indeces"/>
+      <sheetName val="main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="16">
+          <cell r="C16">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,23 +1509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1015625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1512,21 +1557,21 @@
         <v>-4.9350649350649242E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1535,30 +1580,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1015625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1569,19 +1627,31 @@
         <f>main!C29</f>
         <v>0.99999999999999778</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="46">
+        <v>1</v>
+      </c>
+      <c r="F2" s="46">
+        <v>100</v>
+      </c>
+      <c r="G2" s="46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1589,7 +1659,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1602,27 +1672,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1015625" style="1"/>
-    <col min="8" max="8" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1015625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1715,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1672,7 +1742,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1699,7 +1769,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1726,7 +1796,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1753,7 +1823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1780,7 +1850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1807,7 +1877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1833,7 +1903,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1859,7 +1929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1885,7 +1955,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1912,7 +1982,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1941,10 +2011,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1953,19 +2023,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>E2 C12 C8:C10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>C2 E3:E12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$D$2:$D$13</xm:f>
           </x14:formula1>
@@ -1978,24 +2048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="32.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1015625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1015625" style="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2085,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2039,7 +2109,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2063,18 +2133,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2083,13 +2153,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -2102,23 +2172,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.89453125" customWidth="1"/>
-    <col min="3" max="3" width="47.1015625" customWidth="1"/>
-    <col min="4" max="4" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2205,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2222,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2256,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2203,7 +2273,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2290,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2307,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2254,7 +2324,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +2341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2285,7 +2355,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2369,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2383,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2327,7 +2397,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2353,7 +2423,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2364,7 +2434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2445,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2397,7 +2467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2478,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2419,7 +2489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2430,7 +2500,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +2511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2522,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2463,7 +2533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2474,7 +2544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2485,7 +2555,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2496,7 +2566,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2507,7 +2577,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2518,7 +2588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2529,7 +2599,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2540,7 +2610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2551,7 +2621,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2562,7 +2632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2573,7 +2643,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2584,7 +2654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2595,7 +2665,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2603,7 +2673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2619,7 +2689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2627,7 +2697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2705,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2643,7 +2713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2667,7 +2737,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2675,7 +2745,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2683,7 +2753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2691,7 +2761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2699,7 +2769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2707,7 +2777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2715,7 +2785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2723,7 +2793,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2731,7 +2801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2739,87 +2809,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2830,30 +2900,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5234375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5234375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
@@ -2876,7 +2946,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>181</v>
       </c>
@@ -2893,7 +2963,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
         <v>254</v>
@@ -2910,7 +2980,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>183</v>
@@ -2927,7 +2997,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>218</v>
@@ -2944,7 +3014,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>219</v>
@@ -2959,7 +3029,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>188</v>
@@ -2977,7 +3047,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
         <v>245</v>
@@ -2997,7 +3067,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>244</v>
@@ -3015,7 +3085,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
         <v>247</v>
@@ -3032,7 +3102,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
         <v>193</v>
@@ -3047,7 +3117,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
@@ -3062,7 +3132,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="13" t="s">
         <v>182</v>
@@ -3077,7 +3147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
         <v>200</v>
@@ -3090,7 +3160,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
         <v>258</v>
@@ -3107,7 +3177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>260</v>
@@ -3120,7 +3190,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
         <v>263</v>
@@ -3135,7 +3205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -3150,7 +3220,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="14" t="s">
         <v>189</v>
@@ -3168,7 +3238,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
         <v>195</v>
@@ -3186,7 +3256,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
@@ -3204,7 +3274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
         <v>266</v>
@@ -3217,7 +3287,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>177</v>
       </c>
@@ -3235,7 +3305,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>185</v>
@@ -3253,7 +3323,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
         <v>261</v>
@@ -3273,7 +3343,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
         <v>201</v>
@@ -3289,7 +3359,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
         <v>202</v>
@@ -3305,7 +3375,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>202</v>
@@ -3319,7 +3389,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>228</v>
       </c>
@@ -3339,7 +3409,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>261</v>
@@ -3357,7 +3427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="31" t="s">
         <v>229</v>
@@ -3374,7 +3444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="31" t="s">
         <v>230</v>
@@ -3392,7 +3462,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>262</v>
       </c>
@@ -3409,7 +3479,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
         <v>246</v>
       </c>
@@ -3426,7 +3496,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
         <v>264</v>
       </c>
@@ -3443,7 +3513,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>257</v>
       </c>
@@ -3456,10 +3526,39 @@
     <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731DDED0-6304-490C-8F50-BD04242C264F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2">
+        <f>[1]main!C16</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B69A7-676A-4C28-907D-91F3D30FDC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BEF2B-5037-4F9A-A334-D4ACBA569952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="275">
   <si>
     <t>level_row</t>
   </si>
@@ -728,15 +728,9 @@
     <t>ha</t>
   </si>
   <si>
-    <t>1.4-1.9</t>
-  </si>
-  <si>
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>0.1-0.15</t>
-  </si>
-  <si>
     <t>Total required forestry investment</t>
   </si>
   <si>
@@ -815,9 +809,6 @@
     <t>Sh/kg</t>
   </si>
   <si>
-    <t>15-40</t>
-  </si>
-  <si>
     <t>Banana-coffee system cropping guide</t>
   </si>
   <si>
@@ -839,9 +830,6 @@
     <t>Reduction in the physical productivity based on opt level of shading</t>
   </si>
   <si>
-    <t>0.08-0.15</t>
-  </si>
-  <si>
     <t>Reduction in the monetary productivity considering potential price growth</t>
   </si>
   <si>
@@ -885,6 +873,18 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>15-40,5</t>
+  </si>
+  <si>
+    <t>1.4-1.9,0.1</t>
+  </si>
+  <si>
+    <t>0.08-0.15,0.014</t>
+  </si>
+  <si>
+    <t>0.01-0.015,0.01</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +976,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1042,7 +1049,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1133,6 +1140,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,9 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1544,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
@@ -1583,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,16 +1614,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,13 +1640,13 @@
       <c r="D2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="42">
         <v>1</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="42">
         <v>100</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="42">
         <v>25</v>
       </c>
     </row>
@@ -1658,7 +1668,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
@@ -1673,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1702,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +1724,20 @@
       <c r="H1" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1741,8 +1763,11 @@
       <c r="H2" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1768,8 +1793,11 @@
       <c r="H3" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1795,8 +1823,11 @@
       <c r="H4" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1822,8 +1853,11 @@
       <c r="H5" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1849,8 +1883,11 @@
       <c r="H6" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1876,8 +1913,11 @@
       <c r="H7" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1902,8 +1942,11 @@
       <c r="H8" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1928,8 +1971,11 @@
       <c r="H9" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1954,8 +2000,11 @@
       <c r="H10" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1981,8 +2030,11 @@
       <c r="H11" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -2006,6 +2058,9 @@
         <v>-6.5496463190987543E-5</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2049,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2120,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2084,13 +2139,25 @@
       <c r="G1" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2108,8 +2175,11 @@
       <c r="G2" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2132,11 +2202,14 @@
       <c r="G3" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
@@ -2199,10 +2272,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2219,7 +2292,7 @@
         <v>212</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2236,7 +2309,7 @@
         <v>214</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,7 +2343,7 @@
         <v>215</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,10 +2357,10 @@
         <v>141</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,7 +2374,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>209</v>
@@ -2321,7 +2394,7 @@
         <v>216</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,7 +2439,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,7 +2453,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,7 +2467,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2903,11 +2976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,7 +3010,7 @@
         <v>174</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>178</v>
@@ -2947,7 +3020,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2964,16 +3037,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="21">
+        <v>251</v>
+      </c>
+      <c r="C3" s="43">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
@@ -2981,7 +3054,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11" t="s">
         <v>183</v>
       </c>
@@ -2989,7 +3062,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2998,7 +3071,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>218</v>
       </c>
@@ -3015,22 +3088,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="43">
         <v>2000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>188</v>
       </c>
@@ -3048,47 +3121,47 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="21">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="21">
         <v>10410</v>
@@ -3103,7 +3176,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>193</v>
       </c>
@@ -3112,13 +3185,13 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
       </c>
@@ -3127,13 +3200,13 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="13" t="s">
         <v>182</v>
       </c>
@@ -3148,7 +3221,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="13" t="s">
         <v>200</v>
       </c>
@@ -3163,14 +3236,14 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="22">
         <v>-0.08</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
@@ -3180,7 +3253,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C16" s="22">
         <v>-0.02</v>
@@ -3193,7 +3266,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" s="22">
         <v>3.8</v>
@@ -3202,11 +3275,11 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3221,7 +3294,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="14" t="s">
         <v>189</v>
       </c>
@@ -3231,7 +3304,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
@@ -3239,7 +3312,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="14" t="s">
         <v>195</v>
       </c>
@@ -3257,7 +3330,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
       </c>
@@ -3277,7 +3350,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C22" s="20">
         <v>-0.4</v>
@@ -3292,7 +3365,7 @@
         <v>177</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C23" s="24">
         <f>C5*C6*C3*(C7+C19)/1000</f>
@@ -3324,9 +3397,9 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
@@ -3334,17 +3407,17 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="15" t="s">
         <v>201</v>
       </c>
@@ -3360,7 +3433,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="15" t="s">
         <v>202</v>
       </c>
@@ -3390,11 +3463,11 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>228</v>
+      <c r="A29" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="32">
         <f>C23*C18</f>
@@ -3410,9 +3483,9 @@
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C30" s="33">
         <f>C25</f>
@@ -3424,13 +3497,13 @@
         <v>199</v>
       </c>
       <c r="G30" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="31" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="31" t="s">
-        <v>229</v>
       </c>
       <c r="C31" s="35">
         <v>0</v>
@@ -3441,13 +3514,13 @@
         <v>199</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32" s="34">
         <f>-0.27*C14*C18</f>
@@ -3459,12 +3532,12 @@
         <v>136</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
@@ -3476,12 +3549,12 @@
         <v>136</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
@@ -3493,12 +3566,12 @@
         <v>199</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
@@ -3510,12 +3583,12 @@
         <v>199</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3538,11 +3611,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731DDED0-6304-490C-8F50-BD04242C264F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -3551,9 +3627,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2">
+        <v>266</v>
+      </c>
+      <c r="B2" s="7">
         <f>[1]main!C16</f>
         <v>10</v>
       </c>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BEF2B-5037-4F9A-A334-D4ACBA569952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3BAB3-2AA6-4049-AB08-251239395B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="main" sheetId="10" r:id="rId6"/>
     <sheet name="UL" sheetId="11" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="275">
   <si>
     <t>level_row</t>
   </si>
@@ -686,9 +683,6 @@
     <t>Labor -  High Rainfall</t>
   </si>
   <si>
-    <t>Agreggated</t>
-  </si>
-  <si>
     <t>Capital - Land</t>
   </si>
   <si>
@@ -885,6 +879,9 @@
   </si>
   <si>
     <t>0.01-0.015,0.01</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1176,37 +1173,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="S"/>
-      <sheetName val="Y"/>
-      <sheetName val="Z"/>
-      <sheetName val="VA"/>
-      <sheetName val="UL"/>
-      <sheetName val="Indeces"/>
-      <sheetName val="main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="16">
-          <cell r="C16">
-            <v>10</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
@@ -1594,7 +1560,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1641,13 +1607,14 @@
         <v>206</v>
       </c>
       <c r="E2" s="42">
-        <v>1</v>
+        <v>0.97402597402597202</v>
       </c>
       <c r="F2" s="42">
-        <v>100</v>
+        <v>1.0064935064935043</v>
       </c>
       <c r="G2" s="42">
-        <v>25</v>
+        <f>(F2-E2)/5</f>
+        <v>6.4935064935064627E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,16 +1692,16 @@
         <v>205</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1805,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1835,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1865,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -1895,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -2012,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -2107,7 +2074,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,19 +2104,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2157,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2272,10 +2239,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,10 +2256,10 @@
         <v>137</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2306,10 +2273,10 @@
         <v>138</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2323,7 +2290,7 @@
         <v>139</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>207</v>
@@ -2340,10 +2307,10 @@
         <v>140</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2357,10 +2324,10 @@
         <v>141</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2374,10 +2341,10 @@
         <v>142</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2391,10 +2358,10 @@
         <v>143</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2408,10 +2375,10 @@
         <v>144</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2439,7 +2406,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,7 +2420,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2467,7 +2434,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,7 +2947,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,7 +2977,7 @@
         <v>174</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>178</v>
@@ -3039,14 +3006,14 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="43">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
@@ -3062,7 +3029,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -3073,31 +3040,31 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="21">
         <v>88278</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="43">
         <v>2000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3123,45 +3090,45 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="21">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="21">
         <v>10410</v>
@@ -3185,7 +3152,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3200,7 +3167,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3236,14 +3203,14 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="22">
         <v>-0.08</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
@@ -3253,7 +3220,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="22">
         <v>-0.02</v>
@@ -3266,7 +3233,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="22">
         <v>3.8</v>
@@ -3275,7 +3242,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,14 +3266,15 @@
         <v>189</v>
       </c>
       <c r="C19" s="20">
-        <f>0.1*C7</f>
-        <v>1.4000000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
         <v>192</v>
       </c>
@@ -3350,7 +3318,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="20">
         <v>-0.4</v>
@@ -3365,7 +3333,7 @@
         <v>177</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="24">
         <f>C5*C6*C3*(C7+C19)/1000</f>
@@ -3399,7 +3367,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
@@ -3407,13 +3375,13 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,10 +3432,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="32">
         <f>C23*C18</f>
@@ -3485,7 +3453,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="33">
         <f>C25</f>
@@ -3497,13 +3465,13 @@
         <v>199</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="35">
         <v>0</v>
@@ -3514,13 +3482,13 @@
         <v>199</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="34">
         <f>-0.27*C14*C18</f>
@@ -3532,12 +3500,12 @@
         <v>136</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
@@ -3549,12 +3517,12 @@
         <v>136</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
@@ -3566,12 +3534,12 @@
         <v>199</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
@@ -3583,12 +3551,12 @@
         <v>199</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3580,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,11 +3595,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="7">
-        <f>[1]main!C16</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3BAB3-2AA6-4049-AB08-251239395B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588591AB-6878-42B5-80AD-4B58F2668C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="273">
   <si>
     <t>level_row</t>
   </si>
@@ -794,9 +794,6 @@
     <t>Initial use of fruit of HR (HP)</t>
   </si>
   <si>
-    <t>20%-40%</t>
-  </si>
-  <si>
     <t>kg/plant</t>
   </si>
   <si>
@@ -806,15 +803,9 @@
     <t>Banana-coffee system cropping guide</t>
   </si>
   <si>
-    <t>0.25-0.33</t>
-  </si>
-  <si>
     <t>Fraction of shading trees to the coffee plants</t>
   </si>
   <si>
-    <t>1800-2500</t>
-  </si>
-  <si>
     <t>kSh***</t>
   </si>
   <si>
@@ -869,9 +860,6 @@
     <t>Step</t>
   </si>
   <si>
-    <t>15-40,5</t>
-  </si>
-  <si>
     <t>1.4-1.9,0.1</t>
   </si>
   <si>
@@ -882,6 +870,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>1800-2200</t>
   </si>
 </sst>
 </file>
@@ -1520,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
@@ -1580,16 +1574,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,16 +1686,16 @@
         <v>205</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2107,16 +2101,16 @@
         <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2947,7 +2941,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,15 +3000,13 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="43">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
         <v>191</v>
@@ -3029,7 +3021,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -3064,7 +3056,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3096,14 +3088,14 @@
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="25"/>
     </row>
@@ -3116,12 +3108,12 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="25"/>
     </row>
@@ -3152,7 +3144,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3167,7 +3159,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3203,14 +3195,14 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" s="22">
         <v>-0.08</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
@@ -3220,7 +3212,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C16" s="22">
         <v>-0.02</v>
@@ -3233,7 +3225,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="22">
         <v>3.8</v>
@@ -3242,7 +3234,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,10 +3262,10 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>192</v>
@@ -3318,7 +3310,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" s="20">
         <v>-0.4</v>
@@ -3367,16 +3359,14 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
         <v>-2.9422988710693394E-6</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
         <v>199</v>
       </c>
@@ -3453,7 +3443,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C30" s="33">
         <f>C25</f>
@@ -3505,7 +3495,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
@@ -3534,12 +3524,12 @@
         <v>199</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
@@ -3551,12 +3541,12 @@
         <v>199</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B2" s="7">
         <v>20</v>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588591AB-6878-42B5-80AD-4B58F2668C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7AC122-DF9A-4886-A33A-845520D21B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0;\-;\-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1036,7 +1036,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1095,7 +1095,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1482,20 +1482,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1527,16 +1527,16 @@
         <v>-4.9350649350649242E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1557,16 +1557,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1611,18 +1611,18 @@
         <v>6.4935064935064627E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1647,23 +1647,23 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -2067,21 +2067,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2167,10 +2167,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
   </sheetData>
@@ -2213,16 +2213,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2843,87 +2843,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2937,27 +2937,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>181</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>248</v>
@@ -3012,7 +3012,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="11" t="s">
         <v>183</v>
@@ -3029,7 +3029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>217</v>
@@ -3046,7 +3046,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>218</v>
@@ -3061,7 +3061,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>188</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>242</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>241</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
         <v>244</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>193</v>
@@ -3149,7 +3149,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
@@ -3164,7 +3164,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="13" t="s">
         <v>182</v>
@@ -3179,7 +3179,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="13" t="s">
         <v>200</v>
@@ -3192,7 +3192,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
         <v>251</v>
@@ -3209,7 +3209,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>252</v>
@@ -3222,7 +3222,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="13" t="s">
         <v>255</v>
@@ -3237,7 +3237,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>184</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="14" t="s">
         <v>189</v>
@@ -3271,7 +3271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="14" t="s">
         <v>195</v>
@@ -3289,7 +3289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
@@ -3307,7 +3307,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="14" t="s">
         <v>258</v>
@@ -3320,7 +3320,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>177</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>185</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="15" t="s">
         <v>253</v>
@@ -3374,7 +3374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="15" t="s">
         <v>201</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="15" t="s">
         <v>202</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>202</v>
@@ -3420,7 +3420,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>225</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="31" t="s">
         <v>253</v>
@@ -3458,7 +3458,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="31" t="s">
         <v>226</v>
@@ -3475,7 +3475,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
         <v>227</v>
@@ -3493,7 +3493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>254</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>243</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
         <v>256</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>250</v>
       </c>
@@ -3573,17 +3573,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7AC122-DF9A-4886-A33A-845520D21B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D7C9F1-11A8-4263-8810-366538172616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-4.9350649350649242E-2</v>
+        <v>-262.74285714285708</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C2" s="5">
         <f>main!C29</f>
-        <v>0.99999999999999778</v>
+        <v>5324</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>206</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C30</f>
-        <v>2.9422988710693394E-6</v>
+        <v>1.5664799189573198E-2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>204</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G12" s="2">
         <f>main!C34</f>
-        <v>-6.5496463190987543E-5</v>
+        <v>-0.34870317002881845</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>204</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F2" s="2">
         <f>main!C32</f>
-        <v>-3.3158843793853162E-6</v>
+        <v>-1.7653768435847463E-2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>206</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="F3" s="2">
         <f>main!C33</f>
-        <v>4.666800237653407E-6</v>
+        <v>2.4846044465266795E-2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>204</v>
@@ -2937,11 +2937,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,7 +3245,7 @@
         <v>172</v>
       </c>
       <c r="C18" s="20">
-        <v>1.4711494355346697E-4</v>
+        <v>0.78323995947865988</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
-        <v>-2.9422988710693394E-6</v>
+        <v>-1.5664799189573198E-2</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C26" s="27">
         <f>C14*C20*C18</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>-2.6153731016070304E-2</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C27" s="27">
         <f>C21*C14*C18</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>-2.6153731016070304E-2</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C28" s="27">
         <f>C22*C14*C18</f>
-        <v>-4.912421302793061E-6</v>
+        <v>-2.6153731016070315E-2</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C29" s="32">
         <f>C23*C18</f>
-        <v>0.99999999999999778</v>
+        <v>5324</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>190</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="C30" s="33">
         <f>C25</f>
-        <v>-2.9422988710693394E-6</v>
+        <v>-1.5664799189573198E-2</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C32" s="34">
         <f>-0.27*C14*C18</f>
-        <v>-3.3158843793853162E-6</v>
+        <v>-1.7653768435847463E-2</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
-        <v>4.666800237653407E-6</v>
+        <v>2.4846044465266795E-2</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
-        <v>-6.5496463190987543E-5</v>
+        <v>-0.34870317002881845</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
-        <v>-4.9350649350649242E-2</v>
+        <v>-262.74285714285708</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>

--- a/CVX_Kenya/Interventions/Shading_trees.xlsx
+++ b/CVX_Kenya/Interventions/Shading_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D7C9F1-11A8-4263-8810-366538172616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC4C7B1-35DC-4075-9D8F-91C4F0A5F245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="-13965" windowWidth="24570" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-262.74285714285708</v>
+        <v>-335.45639999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C2" s="5">
         <f>main!C29</f>
-        <v>5324</v>
+        <v>6797.4060000000009</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>206</v>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C30</f>
-        <v>1.5664799189573198E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>204</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G12" s="2">
         <f>main!C34</f>
-        <v>-0.34870317002881845</v>
+        <v>-0.44520605187319889</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>204</v>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="B2" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F2" s="2">
         <f>main!C32</f>
-        <v>-1.7653768435847463E-2</v>
+        <v>-2.2539412375740076E-2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>206</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="F3" s="2">
         <f>main!C33</f>
-        <v>2.4846044465266795E-2</v>
+        <v>3.1722135936226768E-2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>204</v>
@@ -2938,10 +2938,10 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,7 +3245,7 @@
         <v>172</v>
       </c>
       <c r="C18" s="20">
-        <v>0.78323995947865988</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C25" s="23">
         <f>C16*C18</f>
-        <v>-1.5664799189573198E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C26" s="27">
         <f>C14*C20*C18</f>
-        <v>-2.6153731016070304E-2</v>
+        <v>-3.3391722038133433E-2</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C27" s="27">
         <f>C21*C14*C18</f>
-        <v>-2.6153731016070304E-2</v>
+        <v>-3.3391722038133433E-2</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C28" s="27">
         <f>C22*C14*C18</f>
-        <v>-2.6153731016070315E-2</v>
+        <v>-3.3391722038133446E-2</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C29" s="32">
         <f>C23*C18</f>
-        <v>5324</v>
+        <v>6797.4060000000009</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>190</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="C30" s="33">
         <f>C25</f>
-        <v>-1.5664799189573198E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C32" s="34">
         <f>-0.27*C14*C18</f>
-        <v>-1.7653768435847463E-2</v>
+        <v>-2.2539412375740076E-2</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
-        <v>2.4846044465266795E-2</v>
+        <v>3.1722135936226768E-2</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
-        <v>-0.34870317002881845</v>
+        <v>-0.44520605187319889</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
-        <v>-262.74285714285708</v>
+        <v>-335.45639999999997</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
